--- a/inst/Result_Data/Model.xlsx
+++ b/inst/Result_Data/Model.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+  <si>
+    <t>Gene</t>
+  </si>
   <si>
     <t>sen_model</t>
   </si>
@@ -1452,7 +1455,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.55752212389381" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1461,348 +1464,350 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1"/>
     </row>
